--- a/Экзамены _вопросы_1семестр_В01-ВТ-121/Инструментальные средства ВТ-121.xlsx
+++ b/Экзамены _вопросы_1семестр_В01-ВТ-121/Инструментальные средства ВТ-121.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\home\Kurs\Экзамены _вопросы_1семестр_В01-ВТ-121\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19F7A3A-70A8-4E50-A2F1-9DF794BA59DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="27000" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1711,7 +1717,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1761,7 +1767,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1771,6 +1777,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1874,16 +1886,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1913,6 +1922,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1923,14 +1951,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1968,7 +1999,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2040,7 +2071,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2213,77 +2244,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="57.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="13" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="13">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2296,1757 +2327,1757 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:5" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:5" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:5" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:5" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:5" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:5" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:5" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:5" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:5" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:5" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:5" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:5" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:5" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:5" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+    <row r="63" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="85.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+    <row r="67" spans="1:5" ht="85.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="74.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:5" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+    <row r="70" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+    <row r="71" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+    <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+    <row r="73" spans="1:5" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+    <row r="75" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+    <row r="76" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+    <row r="77" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+    <row r="78" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+    <row r="79" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+    <row r="80" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+    <row r="81" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+    <row r="82" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+    <row r="83" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+    <row r="84" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
+    <row r="85" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+    <row r="86" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
+    <row r="87" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
+    <row r="88" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+    <row r="89" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+    <row r="90" spans="1:5" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+    <row r="91" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+    <row r="92" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+    <row r="93" spans="1:5" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="64.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+    <row r="94" spans="1:5" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="50.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
+    <row r="95" spans="1:5" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+    <row r="96" spans="1:5" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="97" spans="1:95" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
+    <row r="97" spans="1:95" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="98" spans="1:95" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+    <row r="98" spans="1:95" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="1:95" ht="79.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+    <row r="99" spans="1:95" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="1:95" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
+    <row r="100" spans="1:95" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:95" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+    <row r="101" spans="1:95" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:95" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
+    <row r="102" spans="1:95" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="103" spans="1:95" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
+    <row r="103" spans="1:95" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="104" spans="1:95" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
+    <row r="104" spans="1:95" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:95" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
+    <row r="105" spans="1:95" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="106" spans="1:95" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
+    <row r="106" spans="1:95" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="107" spans="1:95" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
+    <row r="107" spans="1:95" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:95" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
+    <row r="108" spans="1:95" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="1:95" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
+    <row r="109" spans="1:95" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="110" spans="1:95" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
+    <row r="110" spans="1:95" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="111" spans="1:95" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+    <row r="111" spans="1:95" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-    </row>
-    <row r="112" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D112" s="12" t="s">
+      <c r="D112" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E112" s="12" t="s">
+      <c r="E112" s="11" t="s">
         <v>280</v>
       </c>
       <c r="F112"/>
@@ -4140,20 +4171,20 @@
       <c r="CP112"/>
       <c r="CQ112"/>
     </row>
-    <row r="113" spans="1:95" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+    <row r="113" spans="1:95" s="10" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D113" s="12" t="s">
+      <c r="D113" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E113" s="12" t="s">
+      <c r="E113" s="11" t="s">
         <v>202</v>
       </c>
       <c r="F113"/>
@@ -4247,20 +4278,20 @@
       <c r="CP113"/>
       <c r="CQ113"/>
     </row>
-    <row r="114" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+    <row r="114" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D114" s="12" t="s">
+      <c r="D114" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E114" s="12" t="s">
+      <c r="E114" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F114"/>
@@ -4354,20 +4385,20 @@
       <c r="CP114"/>
       <c r="CQ114"/>
     </row>
-    <row r="115" spans="1:95" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+    <row r="115" spans="1:95" s="10" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="D115" s="12" t="s">
+      <c r="D115" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E115" s="12" t="s">
+      <c r="E115" s="11" t="s">
         <v>206</v>
       </c>
       <c r="F115"/>
@@ -4461,20 +4492,20 @@
       <c r="CP115"/>
       <c r="CQ115"/>
     </row>
-    <row r="116" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
+    <row r="116" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D116" s="12" t="s">
+      <c r="D116" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E116" s="12" t="s">
+      <c r="E116" s="11" t="s">
         <v>60</v>
       </c>
       <c r="F116"/>
@@ -4568,20 +4599,20 @@
       <c r="CP116"/>
       <c r="CQ116"/>
     </row>
-    <row r="117" spans="1:95" s="11" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
+    <row r="117" spans="1:95" s="10" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C117" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D117" s="12" t="s">
+      <c r="D117" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E117" s="12" t="s">
+      <c r="E117" s="11" t="s">
         <v>303</v>
       </c>
       <c r="F117"/>
@@ -4675,20 +4706,20 @@
       <c r="CP117"/>
       <c r="CQ117"/>
     </row>
-    <row r="118" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
+    <row r="118" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C118" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="D118" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E118" s="12" t="s">
+      <c r="E118" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F118"/>
@@ -4782,20 +4813,20 @@
       <c r="CP118"/>
       <c r="CQ118"/>
     </row>
-    <row r="119" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
+    <row r="119" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="D119" s="12" t="s">
+      <c r="D119" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E119" s="12" t="s">
+      <c r="E119" s="11" t="s">
         <v>307</v>
       </c>
       <c r="F119"/>
@@ -4889,20 +4920,20 @@
       <c r="CP119"/>
       <c r="CQ119"/>
     </row>
-    <row r="120" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
+    <row r="120" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="D120" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E120" s="12" t="s">
+      <c r="E120" s="11" t="s">
         <v>311</v>
       </c>
       <c r="F120"/>
@@ -4996,20 +5027,20 @@
       <c r="CP120"/>
       <c r="CQ120"/>
     </row>
-    <row r="121" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
+    <row r="121" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D121" s="12" t="s">
+      <c r="D121" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="E121" s="11" t="s">
         <v>315</v>
       </c>
       <c r="F121"/>
@@ -5103,20 +5134,20 @@
       <c r="CP121"/>
       <c r="CQ121"/>
     </row>
-    <row r="122" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
+    <row r="122" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C122" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="D122" s="12" t="s">
+      <c r="D122" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E122" s="12" t="s">
+      <c r="E122" s="11" t="s">
         <v>319</v>
       </c>
       <c r="F122"/>
@@ -5210,20 +5241,20 @@
       <c r="CP122"/>
       <c r="CQ122"/>
     </row>
-    <row r="123" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
+    <row r="123" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C123" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="D123" s="12" t="s">
+      <c r="D123" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E123" s="12" t="s">
+      <c r="E123" s="11" t="s">
         <v>323</v>
       </c>
       <c r="F123"/>
@@ -5317,20 +5348,20 @@
       <c r="CP123"/>
       <c r="CQ123"/>
     </row>
-    <row r="124" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
+    <row r="124" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C124" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D124" s="12" t="s">
+      <c r="D124" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E124" s="12" t="s">
+      <c r="E124" s="11" t="s">
         <v>327</v>
       </c>
       <c r="F124"/>
@@ -5424,20 +5455,20 @@
       <c r="CP124"/>
       <c r="CQ124"/>
     </row>
-    <row r="125" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
+    <row r="125" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="19" t="s">
         <v>524</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C125" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="D125" s="12" t="s">
+      <c r="D125" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="E125" s="12" t="s">
+      <c r="E125" s="11" t="s">
         <v>331</v>
       </c>
       <c r="F125"/>
@@ -5531,20 +5562,20 @@
       <c r="CP125"/>
       <c r="CQ125"/>
     </row>
-    <row r="126" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
+    <row r="126" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C126" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="D126" s="12" t="s">
+      <c r="D126" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E126" s="12" t="s">
+      <c r="E126" s="11" t="s">
         <v>310</v>
       </c>
       <c r="F126"/>
@@ -5638,20 +5669,20 @@
       <c r="CP126"/>
       <c r="CQ126"/>
     </row>
-    <row r="127" spans="1:95" s="11" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
+    <row r="127" spans="1:95" s="10" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C127" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="D127" s="12" t="s">
+      <c r="D127" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="E127" s="12" t="s">
+      <c r="E127" s="11" t="s">
         <v>338</v>
       </c>
       <c r="F127"/>
@@ -5745,20 +5776,20 @@
       <c r="CP127"/>
       <c r="CQ127"/>
     </row>
-    <row r="128" spans="1:95" s="11" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
+    <row r="128" spans="1:95" s="10" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C128" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="D128" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="E128" s="12" t="s">
+      <c r="E128" s="11" t="s">
         <v>344</v>
       </c>
       <c r="F128"/>
@@ -5852,20 +5883,20 @@
       <c r="CP128"/>
       <c r="CQ128"/>
     </row>
-    <row r="129" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
+    <row r="129" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C129" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D129" s="12" t="s">
+      <c r="D129" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="E129" s="12" t="s">
+      <c r="E129" s="11" t="s">
         <v>346</v>
       </c>
       <c r="F129"/>
@@ -5959,20 +5990,20 @@
       <c r="CP129"/>
       <c r="CQ129"/>
     </row>
-    <row r="130" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
+    <row r="130" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="C130" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="D130" s="12" t="s">
+      <c r="D130" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="E130" s="12" t="s">
+      <c r="E130" s="11" t="s">
         <v>350</v>
       </c>
       <c r="F130"/>
@@ -6066,20 +6097,20 @@
       <c r="CP130"/>
       <c r="CQ130"/>
     </row>
-    <row r="131" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
+    <row r="131" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C131" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="D131" s="12" t="s">
+      <c r="D131" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="E131" s="12" t="s">
+      <c r="E131" s="11" t="s">
         <v>353</v>
       </c>
       <c r="F131"/>
@@ -6173,20 +6204,20 @@
       <c r="CP131"/>
       <c r="CQ131"/>
     </row>
-    <row r="132" spans="1:95" s="11" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
+    <row r="132" spans="1:95" s="10" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C132" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D132" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E132" s="12" t="s">
+      <c r="E132" s="11" t="s">
         <v>357</v>
       </c>
       <c r="F132"/>
@@ -6280,20 +6311,20 @@
       <c r="CP132"/>
       <c r="CQ132"/>
     </row>
-    <row r="133" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
+    <row r="133" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="C133" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="D133" s="12" t="s">
+      <c r="D133" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="E133" s="12" t="s">
+      <c r="E133" s="11" t="s">
         <v>342</v>
       </c>
       <c r="F133"/>
@@ -6387,20 +6418,20 @@
       <c r="CP133"/>
       <c r="CQ133"/>
     </row>
-    <row r="134" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
+    <row r="134" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="C134" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="D134" s="12" t="s">
+      <c r="D134" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="E134" s="12" t="s">
+      <c r="E134" s="11" t="s">
         <v>362</v>
       </c>
       <c r="F134"/>
@@ -6494,20 +6525,20 @@
       <c r="CP134"/>
       <c r="CQ134"/>
     </row>
-    <row r="135" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
+    <row r="135" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C135" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="D135" s="12" t="s">
+      <c r="D135" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="E135" s="12" t="s">
+      <c r="E135" s="11" t="s">
         <v>366</v>
       </c>
       <c r="F135"/>
@@ -6601,20 +6632,20 @@
       <c r="CP135"/>
       <c r="CQ135"/>
     </row>
-    <row r="136" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="12" t="s">
+    <row r="136" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="C136" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="D136" s="12" t="s">
+      <c r="D136" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="E136" s="12" t="s">
+      <c r="E136" s="11" t="s">
         <v>370</v>
       </c>
       <c r="F136"/>
@@ -6708,20 +6739,20 @@
       <c r="CP136"/>
       <c r="CQ136"/>
     </row>
-    <row r="137" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="12" t="s">
+    <row r="137" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="C137" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="D137" s="12" t="s">
+      <c r="D137" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="E137" s="12" t="s">
+      <c r="E137" s="11" t="s">
         <v>374</v>
       </c>
       <c r="F137"/>
@@ -6815,20 +6846,20 @@
       <c r="CP137"/>
       <c r="CQ137"/>
     </row>
-    <row r="138" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
+    <row r="138" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C138" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="D138" s="12" t="s">
+      <c r="D138" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="E138" s="12" t="s">
+      <c r="E138" s="11" t="s">
         <v>378</v>
       </c>
       <c r="F138"/>
@@ -6922,20 +6953,20 @@
       <c r="CP138"/>
       <c r="CQ138"/>
     </row>
-    <row r="139" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
+    <row r="139" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C139" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="D139" s="12" t="s">
+      <c r="D139" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="E139" s="12" t="s">
+      <c r="E139" s="11" t="s">
         <v>382</v>
       </c>
       <c r="F139"/>
@@ -7029,20 +7060,20 @@
       <c r="CP139"/>
       <c r="CQ139"/>
     </row>
-    <row r="140" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
+    <row r="140" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="C140" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="D140" s="12" t="s">
+      <c r="D140" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="E140" s="12" t="s">
+      <c r="E140" s="11" t="s">
         <v>386</v>
       </c>
       <c r="F140"/>
@@ -7136,20 +7167,20 @@
       <c r="CP140"/>
       <c r="CQ140"/>
     </row>
-    <row r="141" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
+    <row r="141" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="C141" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="D141" s="12" t="s">
+      <c r="D141" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="E141" s="12" t="s">
+      <c r="E141" s="11" t="s">
         <v>390</v>
       </c>
       <c r="F141"/>
@@ -7243,20 +7274,20 @@
       <c r="CP141"/>
       <c r="CQ141"/>
     </row>
-    <row r="142" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
+    <row r="142" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="C142" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="D142" s="12" t="s">
+      <c r="D142" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="E142" s="12" t="s">
+      <c r="E142" s="11" t="s">
         <v>370</v>
       </c>
       <c r="F142"/>
@@ -7350,20 +7381,20 @@
       <c r="CP142"/>
       <c r="CQ142"/>
     </row>
-    <row r="143" spans="1:95" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="s">
+    <row r="143" spans="1:95" s="10" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C143" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="D143" s="12" t="s">
+      <c r="D143" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="E143" s="12" t="s">
+      <c r="E143" s="11" t="s">
         <v>397</v>
       </c>
       <c r="F143"/>
@@ -7457,20 +7488,20 @@
       <c r="CP143"/>
       <c r="CQ143"/>
     </row>
-    <row r="144" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
+    <row r="144" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C144" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="D144" s="12" t="s">
+      <c r="D144" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="E144" s="12" t="s">
+      <c r="E144" s="11" t="s">
         <v>401</v>
       </c>
       <c r="F144"/>
@@ -7564,20 +7595,20 @@
       <c r="CP144"/>
       <c r="CQ144"/>
     </row>
-    <row r="145" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="12" t="s">
+    <row r="145" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C145" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="D145" s="12" t="s">
+      <c r="D145" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="E145" s="12" t="s">
+      <c r="E145" s="11" t="s">
         <v>405</v>
       </c>
       <c r="F145"/>
@@ -7671,20 +7702,20 @@
       <c r="CP145"/>
       <c r="CQ145"/>
     </row>
-    <row r="146" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
+    <row r="146" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B146" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C146" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="D146" s="12" t="s">
+      <c r="D146" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="E146" s="12" t="s">
+      <c r="E146" s="11" t="s">
         <v>409</v>
       </c>
       <c r="F146"/>
@@ -7778,20 +7809,20 @@
       <c r="CP146"/>
       <c r="CQ146"/>
     </row>
-    <row r="147" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
+    <row r="147" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="C147" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D147" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="E147" s="12" t="s">
+      <c r="E147" s="11" t="s">
         <v>412</v>
       </c>
       <c r="F147"/>
@@ -7885,20 +7916,20 @@
       <c r="CP147"/>
       <c r="CQ147"/>
     </row>
-    <row r="148" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
+    <row r="148" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C148" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="D148" s="12" t="s">
+      <c r="D148" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="E148" s="12" t="s">
+      <c r="E148" s="11" t="s">
         <v>416</v>
       </c>
       <c r="F148"/>
@@ -7992,20 +8023,20 @@
       <c r="CP148"/>
       <c r="CQ148"/>
     </row>
-    <row r="149" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="12" t="s">
+    <row r="149" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="C149" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="D149" s="12" t="s">
+      <c r="D149" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="E149" s="12" t="s">
+      <c r="E149" s="11" t="s">
         <v>423</v>
       </c>
       <c r="F149"/>
@@ -8099,20 +8130,20 @@
       <c r="CP149"/>
       <c r="CQ149"/>
     </row>
-    <row r="150" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
+    <row r="150" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C150" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="D150" s="12" t="s">
+      <c r="D150" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="E150" s="12" t="s">
+      <c r="E150" s="11" t="s">
         <v>422</v>
       </c>
       <c r="F150"/>
@@ -8206,20 +8237,20 @@
       <c r="CP150"/>
       <c r="CQ150"/>
     </row>
-    <row r="151" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
+    <row r="151" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="B151" s="12" t="s">
+      <c r="B151" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="C151" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="D151" s="12" t="s">
+      <c r="D151" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="E151" s="12" t="s">
+      <c r="E151" s="11" t="s">
         <v>418</v>
       </c>
       <c r="F151"/>
@@ -8313,20 +8344,20 @@
       <c r="CP151"/>
       <c r="CQ151"/>
     </row>
-    <row r="152" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="12" t="s">
+    <row r="152" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B152" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="C152" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="D152" s="12" t="s">
+      <c r="D152" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="E152" s="12" t="s">
+      <c r="E152" s="11" t="s">
         <v>428</v>
       </c>
       <c r="F152"/>
@@ -8420,20 +8451,20 @@
       <c r="CP152"/>
       <c r="CQ152"/>
     </row>
-    <row r="153" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
+    <row r="153" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="C153" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="D153" s="12" t="s">
+      <c r="D153" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="E153" s="12" t="s">
+      <c r="E153" s="11" t="s">
         <v>423</v>
       </c>
       <c r="F153"/>
@@ -8527,20 +8558,20 @@
       <c r="CP153"/>
       <c r="CQ153"/>
     </row>
-    <row r="154" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
+    <row r="154" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="B154" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="C154" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="D154" s="12" t="s">
+      <c r="D154" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="E154" s="12" t="s">
+      <c r="E154" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F154"/>
@@ -8634,20 +8665,20 @@
       <c r="CP154"/>
       <c r="CQ154"/>
     </row>
-    <row r="155" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="12" t="s">
+    <row r="155" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C155" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="D155" s="12" t="s">
+      <c r="D155" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="E155" s="12" t="s">
+      <c r="E155" s="11" t="s">
         <v>435</v>
       </c>
       <c r="F155"/>
@@ -8741,20 +8772,20 @@
       <c r="CP155"/>
       <c r="CQ155"/>
     </row>
-    <row r="156" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="12" t="s">
+    <row r="156" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B156" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="C156" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="D156" s="12" t="s">
+      <c r="D156" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="E156" s="12" t="s">
+      <c r="E156" s="11" t="s">
         <v>439</v>
       </c>
       <c r="F156"/>
@@ -8848,20 +8879,20 @@
       <c r="CP156"/>
       <c r="CQ156"/>
     </row>
-    <row r="157" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="12" t="s">
+    <row r="157" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="C157" s="12" t="s">
+      <c r="C157" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="D157" s="12" t="s">
+      <c r="D157" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="E157" s="12" t="s">
+      <c r="E157" s="11" t="s">
         <v>443</v>
       </c>
       <c r="F157"/>
@@ -8955,20 +8986,20 @@
       <c r="CP157"/>
       <c r="CQ157"/>
     </row>
-    <row r="158" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="12" t="s">
+    <row r="158" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="B158" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="C158" s="12" t="s">
+      <c r="C158" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D158" s="12" t="s">
+      <c r="D158" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E158" s="12" t="s">
+      <c r="E158" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F158"/>
@@ -9062,20 +9093,20 @@
       <c r="CP158"/>
       <c r="CQ158"/>
     </row>
-    <row r="159" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="12" t="s">
+    <row r="159" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="C159" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D159" s="12" t="s">
+      <c r="D159" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E159" s="12" t="s">
+      <c r="E159" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F159"/>
@@ -9169,20 +9200,20 @@
       <c r="CP159"/>
       <c r="CQ159"/>
     </row>
-    <row r="160" spans="1:95" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="12" t="s">
+    <row r="160" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="C160" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D160" s="12" t="s">
+      <c r="D160" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E160" s="12" t="s">
+      <c r="E160" s="11" t="s">
         <v>27</v>
       </c>
       <c r="F160"/>
@@ -9286,24 +9317,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Экзамены _вопросы_1семестр_В01-ВТ-121/Инструментальные средства ВТ-121.xlsx
+++ b/Экзамены _вопросы_1семестр_В01-ВТ-121/Инструментальные средства ВТ-121.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\home\Kurs\Экзамены _вопросы_1семестр_В01-ВТ-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19F7A3A-70A8-4E50-A2F1-9DF794BA59DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A1DA8D-D935-4F18-9B32-66348174AA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="27000" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30195" yWindow="1395" windowWidth="27000" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Количество вопросов</t>
   </si>
   <si>
-    <t>запрещается обеднять ячеек</t>
-  </si>
-  <si>
     <t>Ответы B</t>
   </si>
   <si>
@@ -1712,6 +1709,9 @@
   </si>
   <si>
     <t>⠀компьютер (или приложение) отдающий свой ресурс в сеть</t>
+  </si>
+  <si>
+    <t>запрещается обьеднять ячеек</t>
   </si>
 </sst>
 </file>
@@ -1919,9 +1919,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1940,6 +1937,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2248,48 +2248,48 @@
   <dimension ref="A1:CQ160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="57.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="13" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="5" max="5" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>11</v>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>444</v>
+      <c r="B4" s="12" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>150</v>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2305,8 +2305,8 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>28</v>
+      <c r="B7" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2314,1751 +2314,1751 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>10</v>
+      <c r="B9" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>445</v>
+        <v>28</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>444</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>447</v>
+        <v>40</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>446</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>448</v>
+        <v>41</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>447</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>452</v>
+        <v>58</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>451</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="C18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="C21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>457</v>
+        <v>92</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>456</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>460</v>
+        <v>101</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>459</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="C29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="C30" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="C31" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>125</v>
+        <v>119</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="C33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>462</v>
+        <v>128</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>461</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>465</v>
+        <v>140</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>464</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="E40" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>467</v>
+        <v>143</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>472</v>
+        <v>157</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>471</v>
       </c>
       <c r="C46" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="C49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="E49" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>476</v>
+        <v>169</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>475</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="E53" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="C54" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="E54" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>478</v>
+        <v>179</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>477</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>450</v>
+        <v>186</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>449</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="C58" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="E58" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>193</v>
-      </c>
       <c r="C59" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="C60" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>458</v>
+        <v>197</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>457</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>482</v>
+        <v>198</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>481</v>
       </c>
       <c r="C62" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>483</v>
+        <v>203</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>482</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B64" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D64" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>450</v>
+        <v>207</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>449</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B66" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="C66" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="85.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B68" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="C68" s="6" t="s">
+      <c r="D68" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>485</v>
+        <v>218</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>484</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B70" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="C70" s="6" t="s">
+      <c r="D70" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="E70" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B72" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="C72" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B74" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="C74" s="6" t="s">
+      <c r="D74" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="E74" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B75" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="C75" s="6" t="s">
+      <c r="D75" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B76" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="C76" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>496</v>
+        <v>240</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>495</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>497</v>
+        <v>241</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>496</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>498</v>
+        <v>246</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>497</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B80" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="C80" s="6" t="s">
+      <c r="D80" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="E80" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>500</v>
+        <v>251</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>499</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B82" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="C82" s="6" t="s">
+      <c r="D82" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="E82" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>458</v>
+        <v>255</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>457</v>
       </c>
       <c r="C83" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>451</v>
+        <v>256</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>450</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>460</v>
+        <v>258</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>459</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>472</v>
+        <v>259</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>471</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>501</v>
+        <v>260</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>500</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B88" s="17" t="s">
-        <v>502</v>
-      </c>
-      <c r="C88" s="6" t="s">
+      <c r="D88" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>483</v>
+        <v>203</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>482</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>491</v>
+        <v>265</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>490</v>
       </c>
       <c r="C90" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>503</v>
+        <v>266</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>502</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>483</v>
+        <v>267</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>482</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>493</v>
+        <v>268</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>492</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>450</v>
+        <v>240</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>449</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B95" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="D95" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>462</v>
+        <v>271</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>461</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:95" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B97" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D97" s="6" t="s">
+      <c r="E97" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:95" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>482</v>
+        <v>198</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>481</v>
       </c>
       <c r="C98" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:95" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B99" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="C99" s="6" t="s">
+      <c r="D99" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:95" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>506</v>
+        <v>278</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>505</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:95" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B101" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="D101" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:95" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>488</v>
+        <v>280</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>487</v>
       </c>
       <c r="C102" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="E102" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:95" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B103" s="17" t="s">
-        <v>507</v>
-      </c>
-      <c r="C103" s="6" t="s">
+      <c r="D103" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>284</v>
-      </c>
       <c r="E103" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:95" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>508</v>
+        <v>284</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>507</v>
       </c>
       <c r="C104" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="E104" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:95" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>509</v>
+        <v>285</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>508</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D105" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:95" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:95" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>510</v>
+        <v>204</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>509</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" spans="1:95" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B108" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="C108" s="6" t="s">
+      <c r="D108" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D108" s="6" t="s">
-        <v>290</v>
-      </c>
       <c r="E108" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:95" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="110" spans="1:95" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>512</v>
+        <v>292</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>511</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D110" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:95" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B111" s="18" t="s">
-        <v>467</v>
+        <v>143</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>466</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
@@ -4066,19 +4066,19 @@
     </row>
     <row r="112" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B112" s="19" t="s">
-        <v>513</v>
+        <v>293</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>512</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F112"/>
       <c r="G112"/>
@@ -4173,19 +4173,19 @@
     </row>
     <row r="113" spans="1:95" s="10" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="B113" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="C113" s="11" t="s">
+      <c r="D113" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D113" s="11" t="s">
-        <v>298</v>
-      </c>
       <c r="E113" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F113"/>
       <c r="G113"/>
@@ -4280,19 +4280,19 @@
     </row>
     <row r="114" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>448</v>
+        <v>298</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>447</v>
       </c>
       <c r="C114" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="F114"/>
       <c r="G114"/>
@@ -4387,19 +4387,19 @@
     </row>
     <row r="115" spans="1:95" s="10" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>515</v>
+        <v>299</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>514</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F115"/>
       <c r="G115"/>
@@ -4494,19 +4494,19 @@
     </row>
     <row r="116" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>500</v>
+        <v>300</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>499</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F116"/>
       <c r="G116"/>
@@ -4601,19 +4601,19 @@
     </row>
     <row r="117" spans="1:95" s="10" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E117" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>303</v>
       </c>
       <c r="F117"/>
       <c r="G117"/>
@@ -4708,19 +4708,19 @@
     </row>
     <row r="118" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="C118" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="C118" s="11" t="s">
+      <c r="D118" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="E118" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="F118"/>
       <c r="G118"/>
@@ -4815,19 +4815,19 @@
     </row>
     <row r="119" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="C119" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="B119" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="C119" s="11" t="s">
+      <c r="D119" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="E119" s="11" t="s">
         <v>306</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>307</v>
       </c>
       <c r="F119"/>
       <c r="G119"/>
@@ -4922,19 +4922,19 @@
     </row>
     <row r="120" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="C120" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="B120" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="C120" s="11" t="s">
+      <c r="D120" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="E120" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="F120"/>
       <c r="G120"/>
@@ -5029,19 +5029,19 @@
     </row>
     <row r="121" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D121" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B121" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="C121" s="11" t="s">
+      <c r="E121" s="11" t="s">
         <v>314</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>315</v>
       </c>
       <c r="F121"/>
       <c r="G121"/>
@@ -5136,19 +5136,19 @@
     </row>
     <row r="122" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="C122" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="B122" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="C122" s="11" t="s">
+      <c r="D122" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="E122" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>319</v>
       </c>
       <c r="F122"/>
       <c r="G122"/>
@@ -5243,19 +5243,19 @@
     </row>
     <row r="123" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="C123" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="B123" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="C123" s="11" t="s">
+      <c r="D123" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="E123" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>323</v>
       </c>
       <c r="F123"/>
       <c r="G123"/>
@@ -5350,19 +5350,19 @@
     </row>
     <row r="124" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="C124" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="B124" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="C124" s="11" t="s">
+      <c r="D124" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="E124" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="F124"/>
       <c r="G124"/>
@@ -5457,19 +5457,19 @@
     </row>
     <row r="125" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="C125" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B125" s="19" t="s">
-        <v>524</v>
-      </c>
-      <c r="C125" s="11" t="s">
+      <c r="D125" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="E125" s="11" t="s">
         <v>330</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>331</v>
       </c>
       <c r="F125"/>
       <c r="G125"/>
@@ -5564,19 +5564,19 @@
     </row>
     <row r="126" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="C126" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="B126" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="C126" s="11" t="s">
+      <c r="D126" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="D126" s="11" t="s">
-        <v>334</v>
-      </c>
       <c r="E126" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F126"/>
       <c r="G126"/>
@@ -5671,19 +5671,19 @@
     </row>
     <row r="127" spans="1:95" s="10" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="C127" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B127" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="C127" s="11" t="s">
+      <c r="D127" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="E127" s="11" t="s">
         <v>337</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>338</v>
       </c>
       <c r="F127"/>
       <c r="G127"/>
@@ -5778,19 +5778,19 @@
     </row>
     <row r="128" spans="1:95" s="10" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>527</v>
+        <v>339</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>526</v>
       </c>
       <c r="C128" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D128" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="E128" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>344</v>
       </c>
       <c r="F128"/>
       <c r="G128"/>
@@ -5885,19 +5885,19 @@
     </row>
     <row r="129" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E129" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>528</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="F129"/>
       <c r="G129"/>
@@ -5992,19 +5992,19 @@
     </row>
     <row r="130" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B130" s="19" t="s">
-        <v>529</v>
-      </c>
-      <c r="C130" s="11" t="s">
+      <c r="D130" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="E130" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>350</v>
       </c>
       <c r="F130"/>
       <c r="G130"/>
@@ -6099,19 +6099,19 @@
     </row>
     <row r="131" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C131" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="B131" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="C131" s="11" t="s">
+      <c r="D131" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="D131" s="11" t="s">
-        <v>353</v>
-      </c>
       <c r="E131" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F131"/>
       <c r="G131"/>
@@ -6206,19 +6206,19 @@
     </row>
     <row r="132" spans="1:95" s="10" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C132" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B132" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="C132" s="11" t="s">
+      <c r="D132" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="E132" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>357</v>
       </c>
       <c r="F132"/>
       <c r="G132"/>
@@ -6313,19 +6313,19 @@
     </row>
     <row r="133" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>528</v>
+        <v>357</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>527</v>
       </c>
       <c r="C133" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E133" s="11" t="s">
         <v>341</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>342</v>
       </c>
       <c r="F133"/>
       <c r="G133"/>
@@ -6420,19 +6420,19 @@
     </row>
     <row r="134" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C134" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="B134" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="C134" s="11" t="s">
+      <c r="D134" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="D134" s="11" t="s">
+      <c r="E134" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>362</v>
       </c>
       <c r="F134"/>
       <c r="G134"/>
@@ -6527,19 +6527,19 @@
     </row>
     <row r="135" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C135" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="B135" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="C135" s="11" t="s">
+      <c r="D135" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="E135" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>366</v>
       </c>
       <c r="F135"/>
       <c r="G135"/>
@@ -6634,19 +6634,19 @@
     </row>
     <row r="136" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C136" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="B136" s="19" t="s">
-        <v>534</v>
-      </c>
-      <c r="C136" s="11" t="s">
+      <c r="D136" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="E136" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>370</v>
       </c>
       <c r="F136"/>
       <c r="G136"/>
@@ -6741,19 +6741,19 @@
     </row>
     <row r="137" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C137" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B137" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="C137" s="11" t="s">
+      <c r="D137" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="D137" s="11" t="s">
+      <c r="E137" s="11" t="s">
         <v>373</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>374</v>
       </c>
       <c r="F137"/>
       <c r="G137"/>
@@ -6848,19 +6848,19 @@
     </row>
     <row r="138" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C138" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="B138" s="19" t="s">
-        <v>536</v>
-      </c>
-      <c r="C138" s="11" t="s">
+      <c r="D138" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="E138" s="11" t="s">
         <v>377</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>378</v>
       </c>
       <c r="F138"/>
       <c r="G138"/>
@@ -6955,19 +6955,19 @@
     </row>
     <row r="139" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="C139" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="B139" s="19" t="s">
-        <v>537</v>
-      </c>
-      <c r="C139" s="11" t="s">
+      <c r="D139" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="E139" s="11" t="s">
         <v>381</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>382</v>
       </c>
       <c r="F139"/>
       <c r="G139"/>
@@ -7062,19 +7062,19 @@
     </row>
     <row r="140" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="C140" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B140" s="19" t="s">
-        <v>538</v>
-      </c>
-      <c r="C140" s="11" t="s">
+      <c r="D140" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="E140" s="11" t="s">
         <v>385</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>386</v>
       </c>
       <c r="F140"/>
       <c r="G140"/>
@@ -7169,19 +7169,19 @@
     </row>
     <row r="141" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="C141" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="B141" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="C141" s="11" t="s">
+      <c r="D141" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="E141" s="11" t="s">
         <v>389</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>390</v>
       </c>
       <c r="F141"/>
       <c r="G141"/>
@@ -7276,19 +7276,19 @@
     </row>
     <row r="142" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="C142" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B142" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="C142" s="11" t="s">
+      <c r="D142" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="D142" s="11" t="s">
-        <v>393</v>
-      </c>
       <c r="E142" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F142"/>
       <c r="G142"/>
@@ -7383,19 +7383,19 @@
     </row>
     <row r="143" spans="1:95" s="10" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="C143" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="B143" s="19" t="s">
-        <v>541</v>
-      </c>
-      <c r="C143" s="11" t="s">
+      <c r="D143" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="E143" s="11" t="s">
         <v>396</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>397</v>
       </c>
       <c r="F143"/>
       <c r="G143"/>
@@ -7490,19 +7490,19 @@
     </row>
     <row r="144" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="C144" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="B144" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="C144" s="11" t="s">
+      <c r="D144" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="E144" s="11" t="s">
         <v>400</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>401</v>
       </c>
       <c r="F144"/>
       <c r="G144"/>
@@ -7597,19 +7597,19 @@
     </row>
     <row r="145" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="B145" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="C145" s="11" t="s">
+      <c r="D145" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="D145" s="11" t="s">
+      <c r="E145" s="11" t="s">
         <v>404</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>405</v>
       </c>
       <c r="F145"/>
       <c r="G145"/>
@@ -7704,19 +7704,19 @@
     </row>
     <row r="146" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="C146" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B146" s="19" t="s">
-        <v>545</v>
-      </c>
-      <c r="C146" s="11" t="s">
+      <c r="D146" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="D146" s="11" t="s">
+      <c r="E146" s="11" t="s">
         <v>408</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>409</v>
       </c>
       <c r="F146"/>
       <c r="G146"/>
@@ -7811,19 +7811,19 @@
     </row>
     <row r="147" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>544</v>
+        <v>405</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>543</v>
       </c>
       <c r="C147" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="D147" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="D147" s="11" t="s">
+      <c r="E147" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>412</v>
       </c>
       <c r="F147"/>
       <c r="G147"/>
@@ -7918,19 +7918,19 @@
     </row>
     <row r="148" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="C148" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="B148" s="19" t="s">
-        <v>546</v>
-      </c>
-      <c r="C148" s="11" t="s">
+      <c r="D148" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="E148" s="11" t="s">
         <v>415</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>416</v>
       </c>
       <c r="F148"/>
       <c r="G148"/>
@@ -8025,19 +8025,19 @@
     </row>
     <row r="149" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="C149" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="B149" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="C149" s="11" t="s">
+      <c r="D149" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="D149" s="11" t="s">
-        <v>419</v>
-      </c>
       <c r="E149" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F149"/>
       <c r="G149"/>
@@ -8132,19 +8132,19 @@
     </row>
     <row r="150" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B150" s="19" t="s">
-        <v>548</v>
+        <v>405</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>547</v>
       </c>
       <c r="C150" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D150" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="D150" s="11" t="s">
+      <c r="E150" s="11" t="s">
         <v>421</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>422</v>
       </c>
       <c r="F150"/>
       <c r="G150"/>
@@ -8239,19 +8239,19 @@
     </row>
     <row r="151" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E151" s="11" t="s">
         <v>417</v>
-      </c>
-      <c r="B151" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>418</v>
       </c>
       <c r="F151"/>
       <c r="G151"/>
@@ -8346,19 +8346,19 @@
     </row>
     <row r="152" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="B152" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="C152" s="11" t="s">
+      <c r="D152" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="D152" s="11" t="s">
+      <c r="E152" s="11" t="s">
         <v>427</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>428</v>
       </c>
       <c r="F152"/>
       <c r="G152"/>
@@ -8453,19 +8453,19 @@
     </row>
     <row r="153" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="B153" s="19" t="s">
-        <v>551</v>
+        <v>382</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>550</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F153"/>
       <c r="G153"/>
@@ -8560,19 +8560,19 @@
     </row>
     <row r="154" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="C154" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="B154" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="C154" s="11" t="s">
+      <c r="D154" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="D154" s="11" t="s">
-        <v>432</v>
-      </c>
       <c r="E154" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F154"/>
       <c r="G154"/>
@@ -8667,19 +8667,19 @@
     </row>
     <row r="155" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>553</v>
+        <v>405</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>552</v>
       </c>
       <c r="C155" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="D155" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="D155" s="11" t="s">
+      <c r="E155" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>435</v>
       </c>
       <c r="F155"/>
       <c r="G155"/>
@@ -8774,19 +8774,19 @@
     </row>
     <row r="156" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C156" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="B156" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="C156" s="11" t="s">
+      <c r="D156" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="D156" s="11" t="s">
+      <c r="E156" s="11" t="s">
         <v>438</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>439</v>
       </c>
       <c r="F156"/>
       <c r="G156"/>
@@ -8881,19 +8881,19 @@
     </row>
     <row r="157" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="C157" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="B157" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="C157" s="11" t="s">
+      <c r="D157" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="E157" s="11" t="s">
         <v>442</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>443</v>
       </c>
       <c r="F157"/>
       <c r="G157"/>
@@ -8988,19 +8988,19 @@
     </row>
     <row r="158" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B158" s="19" t="s">
-        <v>556</v>
+        <v>338</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>555</v>
       </c>
       <c r="C158" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D158" s="11" t="s">
+      <c r="E158" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="E158" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="F158"/>
       <c r="G158"/>
@@ -9095,19 +9095,19 @@
     </row>
     <row r="159" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="C159" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B159" s="19" t="s">
-        <v>557</v>
-      </c>
-      <c r="C159" s="11" t="s">
+      <c r="D159" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E159" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="F159"/>
       <c r="G159"/>
@@ -9202,19 +9202,19 @@
     </row>
     <row r="160" spans="1:95" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="C160" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B160" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="C160" s="11" t="s">
+      <c r="D160" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E160" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="F160"/>
       <c r="G160"/>
